--- a/ドキュメント類/基本設計書.xlsx
+++ b/ドキュメント類/基本設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b16483034bcea9e/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kinno\git\2020_application_repoitory\ドキュメント類\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="237" documentId="8_{BC6CF653-7EFE-47CB-BA09-255FC19758B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B25C81B1-80C2-495F-82BC-CCCC2A7EA3D4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F60D2C-D9D2-4A13-BB0C-07CC796F8787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="964" activeTab="4" xr2:uid="{3B08EDDA-C8A0-47AF-BE1B-ABF258ECAA2A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="964" activeTab="5" xr2:uid="{3B08EDDA-C8A0-47AF-BE1B-ABF258ECAA2A}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>外食先選定のプロセス改善
 基本設計書</t>
@@ -269,13 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CloudSQLあるいはFirebaseCloudFirestoreを利用</t>
-    <rPh sb="35" eb="37">
-      <t>リヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アプリケーションのメイン部分。フロントをFirebaseHosting、サーバ処理をGoogleAppEngineを利用。</t>
     <rPh sb="12" eb="14">
       <t>ブブン</t>
@@ -434,10 +427,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>CloudSQL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RDBMS</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,28 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GoogleAppEngineから読み込み書き込みされるRDBMS。MySQL環境を用いる。</t>
-    <rPh sb="17" eb="18">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>モチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ストレージサービス。食事の画像や必要となる各種ファイルを保存する。（使わないかもしれない）</t>
     <rPh sb="10" eb="12">
       <t>ショクジ</t>
@@ -602,6 +569,84 @@
     <t>GoogleSpreadSheetを用いる</t>
     <rPh sb="18" eb="19">
       <t>モチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーキテクチャ変更（CloudSQLはお金かかるからGCEに）</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudSQLあるいはFirebaseCloudFirestoreを利用→やっぱGoogleComputeEngineをMySQLサーバーにする</t>
+    <rPh sb="35" eb="37">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IaaS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleComputeEngine</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CloudSQL（無しで）</t>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CentOSとやらにMySQLぶちこんでDBサーバっていうものにする（GCEなら無料枠あるから）</t>
+    <rPh sb="40" eb="43">
+      <t>ムリョウワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleAppEngineから読み込み書き込みされるRDBMS。MySQL環境を用いる。（無料枠ないのでやっぱ無しで）</t>
+    <rPh sb="17" eb="18">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>モチ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>ムリョウワク</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やっぱ無し</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -844,7 +889,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +969,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,7 +983,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,13 +1048,489 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8010525" cy="6962775"/>
+          <a:ext cx="7938558" cy="6844242"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>14112</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B21AFE46-EDE7-4AA9-885E-15CA5CA106D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63499" y="3570111"/>
+          <a:ext cx="1580446" cy="310445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>GoogleComputeEngine</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>162279</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A92BECCB-B020-480D-9907-D905F117230E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="395112" y="3873500"/>
+          <a:ext cx="1044221" cy="1100667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144017</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92F3066D-8482-486D-9B92-4580BCECBE92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="232833" y="3788834"/>
+          <a:ext cx="376851" cy="376851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>173566</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>112889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>14112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{067DD61E-AEE8-4C4D-BE48-4D8512BE9B1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="639233" y="4007556"/>
+          <a:ext cx="550334" cy="550334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>204611</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9BC29C5-90EE-4730-AFBD-2CDD012001FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="4649611"/>
+          <a:ext cx="733778" cy="310444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>MySQL</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>113820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229193</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127633</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="インク 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50A7FE3-6FDB-4621-B227-4BED1697FE82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2209320" y="4653720"/>
+            <a:ext cx="581040" cy="829080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="インク 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F50A7FE3-6FDB-4621-B227-4BED1697FE82}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2200680" y="4645080"/>
+              <a:ext cx="598680" cy="846720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>202653</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>81047</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66433</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="11" name="インク 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F844D96-C48E-433B-9CA2-A0C52081B99F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2065320" y="4627080"/>
+            <a:ext cx="1042560" cy="794520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="11" name="インク 10">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F844D96-C48E-433B-9CA2-A0C52081B99F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2056680" y="4618080"/>
+              <a:ext cx="1060200" cy="812160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>225777</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5C2655-1A62-4FCB-A052-CBB22DA9F5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1439333" y="3570111"/>
+          <a:ext cx="649111" cy="853723"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1165,6 +1689,58 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-15T08:52:24.170"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1614 1,'-14'31,"2"0,1 2,0 3,-9 29,-5 10,-4-2,-3-2,-3 0,-3-3,-8 7,-68 80,-91 91,51-63,-80 94,139-173,-64 50,121-121,-25 24,1 2,-20 28,66-67,1 0,0 0,1 2,1-1,2 2,0 0,1 0,1 1,2 0,-2 7,8-29,0 1,1 0,-1-1,1 1,-1-1,1 1,0 0,0-1,0 1,0 0,0-1,1 1,-1 0,1-1,0 1,-1-1,1 1,1-1,-1 0,0 1,0-1,1 1,9 4</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2020-04-15T08:52:24.816"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="ignorePressure" value="1"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0,'10'19,"13"25,3 0,1-2,2 0,2-2,2-2,14 12,15 6,2-3,2-2,5-2,217 130,-45-30,1062 729,-1284-863,234 167,-176-121,-4 4,8 13,-79-74,7 6,-1 1,0 1,7 9,-12-8,-14-15,-14-15,-10-22,19 21</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2553,7 +3129,7 @@
   <dimension ref="A1:Z42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+      <selection activeCell="I7" sqref="I7:Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2688,7 +3264,7 @@
       <c r="G5" s="11"/>
       <c r="H5" s="12"/>
       <c r="I5" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -2710,14 +3286,18 @@
     </row>
     <row r="6" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1"/>
-      <c r="B6" s="10"/>
+      <c r="B6" s="25">
+        <v>43936</v>
+      </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
@@ -3746,6 +4326,70 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="I35:Y35"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="I36:Y36"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="I37:Y37"/>
+    <mergeCell ref="B41:H41"/>
+    <mergeCell ref="I41:Y41"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="I38:Y38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:Y39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="I40:Y40"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="I29:Y29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="I30:Y30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="I31:Y31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="I32:Y32"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="I33:Y33"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="I34:Y34"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="I27:Y27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="I28:Y28"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="I17:Y17"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="I18:Y18"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:Y19"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="I15:Y15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="I16:Y16"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="I20:Y20"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="I13:Y13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="I14:Y14"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="I10:Y10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="I11:Y11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="I12:Y12"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="I9:Y9"/>
     <mergeCell ref="B2:Y3"/>
@@ -3759,70 +4403,6 @@
     <mergeCell ref="I7:Y7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="I8:Y8"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="I13:Y13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="I14:Y14"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="I10:Y10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="I11:Y11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="I12:Y12"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="I15:Y15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="I16:Y16"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="I20:Y20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="I17:Y17"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="I18:Y18"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="I19:Y19"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="I27:Y27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="I28:Y28"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="I32:Y32"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="I33:Y33"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="I34:Y34"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="I29:Y29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="I30:Y30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="I31:Y31"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="I41:Y41"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="I38:Y38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:Y39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="I40:Y40"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="I35:Y35"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="I36:Y36"/>
-    <mergeCell ref="B37:H37"/>
-    <mergeCell ref="I37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3835,7 +4415,7 @@
   <dimension ref="A1:AQ28"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -3891,10 +4471,10 @@
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
@@ -3928,7 +4508,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -3982,7 +4562,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -4016,13 +4596,13 @@
         <v>2</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -4220,7 +4800,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="AP13" sqref="AP13"/>
+      <selection activeCell="AM23" sqref="AM23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4234,675 +4814,754 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2B849A5-F5C0-4BD5-A4F0-827B0A69C099}">
-  <dimension ref="B1:AU21"/>
+  <dimension ref="B1:AW22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20:AU20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="3.08203125" customWidth="1"/>
+    <col min="48" max="48" width="3.08203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:47" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="2" spans="2:47" ht="39" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:49" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:49" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
+    <row r="5" spans="2:49" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="6" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="2:47" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="6" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" s="30" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30" t="s">
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
+      <c r="AI6" s="26"/>
+      <c r="AJ6" s="26"/>
+      <c r="AK6" s="26"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="26"/>
+      <c r="AO6" s="26"/>
+      <c r="AP6" s="26"/>
+      <c r="AQ6" s="26"/>
+      <c r="AR6" s="26"/>
+      <c r="AS6" s="26"/>
+      <c r="AT6" s="26"/>
+      <c r="AU6" s="26"/>
+    </row>
+    <row r="7" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30" t="s">
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26">
+        <v>9</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="27"/>
+      <c r="AL7" s="27"/>
+      <c r="AM7" s="27"/>
+      <c r="AN7" s="27"/>
+      <c r="AO7" s="27"/>
+      <c r="AP7" s="27"/>
+      <c r="AQ7" s="27"/>
+      <c r="AR7" s="27"/>
+      <c r="AS7" s="27"/>
+      <c r="AT7" s="27"/>
+      <c r="AU7" s="27"/>
+    </row>
+    <row r="8" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26">
+        <v>8</v>
+      </c>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="27"/>
+      <c r="AL8" s="27"/>
+      <c r="AM8" s="27"/>
+      <c r="AN8" s="27"/>
+      <c r="AO8" s="27"/>
+      <c r="AP8" s="27"/>
+      <c r="AQ8" s="27"/>
+      <c r="AR8" s="27"/>
+      <c r="AS8" s="27"/>
+      <c r="AT8" s="27"/>
+      <c r="AU8" s="27"/>
+    </row>
+    <row r="9" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="29"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
+      <c r="AI9" s="26"/>
+      <c r="AJ9" s="26"/>
+      <c r="AK9" s="26"/>
+      <c r="AL9" s="26"/>
+      <c r="AM9" s="26"/>
+      <c r="AN9" s="26"/>
+      <c r="AO9" s="26"/>
+      <c r="AP9" s="26"/>
+      <c r="AQ9" s="26"/>
+      <c r="AR9" s="26"/>
+      <c r="AS9" s="26"/>
+      <c r="AT9" s="26"/>
+      <c r="AU9" s="26"/>
+    </row>
+    <row r="11" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="30"/>
-      <c r="AL6" s="30"/>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="30"/>
-      <c r="AO6" s="30"/>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="30"/>
-      <c r="AR6" s="30"/>
-      <c r="AS6" s="30"/>
-      <c r="AT6" s="30"/>
-      <c r="AU6" s="30"/>
-    </row>
-    <row r="7" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C7" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30">
-        <v>9</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="26" t="s">
+    </row>
+    <row r="12" spans="2:49" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="13" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
+      <c r="AA13" s="26"/>
+      <c r="AB13" s="26"/>
+      <c r="AC13" s="26"/>
+      <c r="AD13" s="26"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="26"/>
+      <c r="AH13" s="26"/>
+      <c r="AI13" s="26"/>
+      <c r="AJ13" s="26"/>
+      <c r="AK13" s="26"/>
+      <c r="AL13" s="26"/>
+      <c r="AM13" s="26"/>
+      <c r="AN13" s="26"/>
+      <c r="AO13" s="26"/>
+      <c r="AP13" s="26"/>
+      <c r="AQ13" s="26"/>
+      <c r="AR13" s="26"/>
+      <c r="AS13" s="26"/>
+      <c r="AT13" s="26"/>
+      <c r="AU13" s="26"/>
+    </row>
+    <row r="14" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="26"/>
-      <c r="AK7" s="26"/>
-      <c r="AL7" s="26"/>
-      <c r="AM7" s="26"/>
-      <c r="AN7" s="26"/>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="26"/>
-      <c r="AQ7" s="26"/>
-      <c r="AR7" s="26"/>
-      <c r="AS7" s="26"/>
-      <c r="AT7" s="26"/>
-      <c r="AU7" s="26"/>
-    </row>
-    <row r="8" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30">
-        <v>8</v>
-      </c>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="26" t="s">
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27"/>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27"/>
+      <c r="AD14" s="27"/>
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="27"/>
+      <c r="AG14" s="27"/>
+      <c r="AH14" s="27"/>
+      <c r="AI14" s="27"/>
+      <c r="AJ14" s="27"/>
+      <c r="AK14" s="27"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+    </row>
+    <row r="15" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27"/>
+      <c r="AD15" s="27"/>
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="27"/>
+      <c r="AG15" s="27"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="27"/>
+      <c r="AK15" s="27"/>
+      <c r="AL15" s="27"/>
+      <c r="AM15" s="27"/>
+      <c r="AN15" s="27"/>
+      <c r="AO15" s="27"/>
+      <c r="AP15" s="27"/>
+      <c r="AQ15" s="27"/>
+      <c r="AR15" s="27"/>
+      <c r="AS15" s="27"/>
+      <c r="AT15" s="27"/>
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:49" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+    </row>
+    <row r="17" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="26"/>
-      <c r="AK8" s="26"/>
-      <c r="AL8" s="26"/>
-      <c r="AM8" s="26"/>
-      <c r="AN8" s="26"/>
-      <c r="AO8" s="26"/>
-      <c r="AP8" s="26"/>
-      <c r="AQ8" s="26"/>
-      <c r="AR8" s="26"/>
-      <c r="AS8" s="26"/>
-      <c r="AT8" s="26"/>
-      <c r="AU8" s="26"/>
-    </row>
-    <row r="9" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30"/>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30"/>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30"/>
-      <c r="AU9" s="30"/>
-    </row>
-    <row r="11" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:47" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="13" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C13" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-    </row>
-    <row r="14" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C14" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="26" t="s">
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27"/>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="27"/>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27"/>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+    </row>
+    <row r="18" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="26"/>
-      <c r="AB14" s="26"/>
-      <c r="AC14" s="26"/>
-      <c r="AD14" s="26"/>
-      <c r="AE14" s="26"/>
-      <c r="AF14" s="26"/>
-      <c r="AG14" s="26"/>
-      <c r="AH14" s="26"/>
-      <c r="AI14" s="26"/>
-      <c r="AJ14" s="26"/>
-      <c r="AK14" s="26"/>
-      <c r="AL14" s="26"/>
-      <c r="AM14" s="26"/>
-      <c r="AN14" s="26"/>
-      <c r="AO14" s="26"/>
-      <c r="AP14" s="26"/>
-      <c r="AQ14" s="26"/>
-      <c r="AR14" s="26"/>
-      <c r="AS14" s="26"/>
-      <c r="AT14" s="26"/>
-      <c r="AU14" s="26"/>
-    </row>
-    <row r="15" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="26" t="s">
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+    </row>
+    <row r="19" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="26"/>
-      <c r="AB15" s="26"/>
-      <c r="AC15" s="26"/>
-      <c r="AD15" s="26"/>
-      <c r="AE15" s="26"/>
-      <c r="AF15" s="26"/>
-      <c r="AG15" s="26"/>
-      <c r="AH15" s="26"/>
-      <c r="AI15" s="26"/>
-      <c r="AJ15" s="26"/>
-      <c r="AK15" s="26"/>
-      <c r="AL15" s="26"/>
-      <c r="AM15" s="26"/>
-      <c r="AN15" s="26"/>
-      <c r="AO15" s="26"/>
-      <c r="AP15" s="26"/>
-      <c r="AQ15" s="26"/>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="26"/>
-      <c r="AU15" s="26"/>
-    </row>
-    <row r="16" spans="2:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="26"/>
-      <c r="AB16" s="26"/>
-      <c r="AC16" s="26"/>
-      <c r="AD16" s="26"/>
-      <c r="AE16" s="26"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="26"/>
-      <c r="AM16" s="26"/>
-      <c r="AN16" s="26"/>
-      <c r="AO16" s="26"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-    </row>
-    <row r="17" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="26"/>
-      <c r="AB17" s="26"/>
-      <c r="AC17" s="26"/>
-      <c r="AD17" s="26"/>
-      <c r="AE17" s="26"/>
-      <c r="AF17" s="26"/>
-      <c r="AG17" s="26"/>
-      <c r="AH17" s="26"/>
-      <c r="AI17" s="26"/>
-      <c r="AJ17" s="26"/>
-      <c r="AK17" s="26"/>
-      <c r="AL17" s="26"/>
-      <c r="AM17" s="26"/>
-      <c r="AN17" s="26"/>
-      <c r="AO17" s="26"/>
-      <c r="AP17" s="26"/>
-      <c r="AQ17" s="26"/>
-      <c r="AR17" s="26"/>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-    </row>
-    <row r="18" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26"/>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26"/>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26"/>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26"/>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26"/>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-    </row>
-    <row r="19" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26"/>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26"/>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26"/>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26"/>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26"/>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26"/>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27"/>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="27"/>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27"/>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
     </row>
     <row r="20" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="26"/>
-      <c r="AB20" s="26"/>
-      <c r="AC20" s="26"/>
-      <c r="AD20" s="26"/>
-      <c r="AE20" s="26"/>
-      <c r="AF20" s="26"/>
-      <c r="AG20" s="26"/>
-      <c r="AH20" s="26"/>
-      <c r="AI20" s="26"/>
-      <c r="AJ20" s="26"/>
-      <c r="AK20" s="26"/>
-      <c r="AL20" s="26"/>
-      <c r="AM20" s="26"/>
-      <c r="AN20" s="26"/>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-    </row>
-    <row r="21" spans="3:47" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27"/>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="27"/>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27"/>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+    </row>
+    <row r="21" spans="3:47" ht="13" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27"/>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="27"/>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27"/>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+    </row>
+    <row r="22" spans="3:47" ht="6" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H7:N7"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="C7:G7"/>
+  <mergeCells count="47">
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="J16:O16"/>
+    <mergeCell ref="P16:AU16"/>
+    <mergeCell ref="P15:AU15"/>
+    <mergeCell ref="T9:X9"/>
+    <mergeCell ref="Y6:AU6"/>
+    <mergeCell ref="Y7:AU7"/>
+    <mergeCell ref="Y8:AU8"/>
+    <mergeCell ref="Y9:AU9"/>
     <mergeCell ref="J19:O19"/>
+    <mergeCell ref="C21:I21"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="P21:AU21"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C18:I18"/>
+    <mergeCell ref="C19:I19"/>
+    <mergeCell ref="C20:I20"/>
+    <mergeCell ref="P20:AU20"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="P14:AU14"/>
+    <mergeCell ref="J20:O20"/>
     <mergeCell ref="J13:O13"/>
     <mergeCell ref="P13:AU13"/>
     <mergeCell ref="O8:S8"/>
@@ -4911,35 +5570,19 @@
     <mergeCell ref="T8:X8"/>
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="O7:S7"/>
-    <mergeCell ref="P16:AU16"/>
     <mergeCell ref="P17:AU17"/>
     <mergeCell ref="P18:AU18"/>
+    <mergeCell ref="P19:AU19"/>
     <mergeCell ref="J14:O14"/>
     <mergeCell ref="J15:O15"/>
-    <mergeCell ref="J16:O16"/>
     <mergeCell ref="J17:O17"/>
     <mergeCell ref="J18:O18"/>
-    <mergeCell ref="C20:I20"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="P20:AU20"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C18:I18"/>
-    <mergeCell ref="C19:I19"/>
-    <mergeCell ref="P19:AU19"/>
-    <mergeCell ref="J20:O20"/>
-    <mergeCell ref="P14:AU14"/>
-    <mergeCell ref="P15:AU15"/>
-    <mergeCell ref="T9:X9"/>
-    <mergeCell ref="Y6:AU6"/>
-    <mergeCell ref="Y7:AU7"/>
-    <mergeCell ref="Y8:AU8"/>
-    <mergeCell ref="Y9:AU9"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H7:N7"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4951,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64E27FF-D8E2-4954-99AF-E9B5367960C0}">
   <dimension ref="B2:B96"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ11" sqref="AZ11"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AV31" sqref="AV31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.08203125" defaultRowHeight="13" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -4962,17 +5605,17 @@
   <sheetData>
     <row r="2" spans="2:2" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="2:2" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="39" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
